--- a/Fase 2/Evidencias Proyecto/1.1.3 EDT .xlsx
+++ b/Fase 2/Evidencias Proyecto/1.1.3 EDT .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcelo Twice\Desktop\Plataforma Web Intecil\1. Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB95136-5431-48B1-9AE8-D605F7289708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DC7FDA-C939-4054-A7E3-186B02A50EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="63">
   <si>
     <t>ESTRUCTURA DE DESGLOSE DE TRABAJO EDT</t>
   </si>
@@ -279,9 +279,6 @@
   </si>
   <si>
     <t>1.4.4 Control de Alcance</t>
-  </si>
-  <si>
-    <t>1.4.5 Control de Costos</t>
   </si>
   <si>
     <t>1.2.2.3 Casos de Uso</t>
@@ -1218,9 +1215,9 @@
   </sheetPr>
   <dimension ref="A1:AE922"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O48" sqref="O48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="P1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1887,7 +1884,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="10"/>
       <c r="E18" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F18" s="17"/>
       <c r="G18" s="23" t="s">
@@ -1971,7 +1968,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="10"/>
       <c r="E20" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F20" s="17"/>
       <c r="G20" s="19" t="s">
@@ -2033,9 +2030,7 @@
       <c r="R21" s="18"/>
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
-      <c r="U21" s="39" t="s">
-        <v>10</v>
-      </c>
+      <c r="U21" s="11"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="11"/>
@@ -2053,11 +2048,11 @@
       <c r="C22" s="6"/>
       <c r="D22" s="10"/>
       <c r="E22" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F22" s="17"/>
       <c r="G22" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
@@ -2074,9 +2069,7 @@
       <c r="R22" s="18"/>
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
-      <c r="U22" s="40" t="s">
-        <v>42</v>
-      </c>
+      <c r="U22" s="11"/>
       <c r="V22" s="11"/>
       <c r="W22" s="18"/>
       <c r="X22" s="11"/>
@@ -2133,11 +2126,11 @@
       <c r="C24" s="6"/>
       <c r="D24" s="10"/>
       <c r="E24" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
@@ -2211,7 +2204,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="43"/>
       <c r="G26" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="43"/>
       <c r="I26" s="45"/>
@@ -2282,7 +2275,7 @@
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" s="17"/>
       <c r="I28" s="25"/>
@@ -2356,7 +2349,7 @@
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="25"/>
@@ -2430,7 +2423,7 @@
       <c r="E32" s="25"/>
       <c r="F32" s="25"/>
       <c r="G32" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
@@ -2504,7 +2497,7 @@
       <c r="E34" s="25"/>
       <c r="F34" s="31"/>
       <c r="G34" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H34" s="17"/>
       <c r="I34" s="31"/>
@@ -2578,7 +2571,7 @@
       <c r="E36" s="25"/>
       <c r="F36" s="31"/>
       <c r="G36" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" s="17"/>
       <c r="I36" s="31"/>
@@ -2652,7 +2645,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
@@ -2726,7 +2719,7 @@
       <c r="E40" s="17"/>
       <c r="F40" s="25"/>
       <c r="G40" s="37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2800,7 +2793,7 @@
       <c r="E42" s="17"/>
       <c r="F42" s="31"/>
       <c r="G42" s="32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2872,7 +2865,7 @@
       <c r="E44" s="17"/>
       <c r="F44" s="17"/>
       <c r="G44" s="36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
@@ -2942,7 +2935,7 @@
       <c r="E46" s="17"/>
       <c r="F46" s="17"/>
       <c r="G46" s="32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
@@ -3012,7 +3005,7 @@
       <c r="E48" s="17"/>
       <c r="F48" s="17"/>
       <c r="G48" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
@@ -3082,7 +3075,7 @@
       <c r="E50" s="17"/>
       <c r="F50" s="17"/>
       <c r="G50" s="32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
@@ -3152,7 +3145,7 @@
       <c r="E52" s="17"/>
       <c r="F52" s="17"/>
       <c r="G52" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
@@ -3222,7 +3215,7 @@
       <c r="E54" s="17"/>
       <c r="F54" s="17"/>
       <c r="G54" s="32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
